--- a/stock_historical_data/1wk/PGHH.NS.xlsx
+++ b/stock_historical_data/1wk/PGHH.NS.xlsx
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -6238,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="R103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -6294,7 +6294,7 @@
         <v>1</v>
       </c>
       <c r="R104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -6350,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="R105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -16822,7 +16822,7 @@
         <v>2</v>
       </c>
       <c r="R292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -17102,7 +17102,7 @@
         <v>1</v>
       </c>
       <c r="R297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -19062,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="R332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -19174,7 +19174,7 @@
         <v>1</v>
       </c>
       <c r="R334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -19790,7 +19790,7 @@
         <v>0</v>
       </c>
       <c r="R345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -32782,7 +32782,7 @@
         <v>2</v>
       </c>
       <c r="R577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
@@ -47230,7 +47230,7 @@
         <v>0</v>
       </c>
       <c r="R835" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836">
@@ -47734,7 +47734,7 @@
         <v>2</v>
       </c>
       <c r="R844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845">
@@ -52214,7 +52214,7 @@
         <v>2</v>
       </c>
       <c r="R924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925">
@@ -52550,7 +52550,7 @@
         <v>1</v>
       </c>
       <c r="R930" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931">
@@ -54118,7 +54118,7 @@
         <v>0</v>
       </c>
       <c r="R958" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959">
@@ -59998,7 +59998,7 @@
         <v>1</v>
       </c>
       <c r="R1063" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064">
@@ -60726,7 +60726,7 @@
         <v>2</v>
       </c>
       <c r="R1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077">
@@ -61454,7 +61454,7 @@
         <v>1</v>
       </c>
       <c r="R1089" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090">
@@ -63358,7 +63358,7 @@
         <v>2</v>
       </c>
       <c r="R1123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124">
@@ -64253,7 +64253,9 @@
       <c r="Q1139" t="n">
         <v>0</v>
       </c>
-      <c r="R1139" t="inlineStr"/>
+      <c r="R1139" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PGHH.NS.xlsx
+++ b/stock_historical_data/1wk/PGHH.NS.xlsx
@@ -60887,7 +60887,9 @@
       <c r="P1140" t="n">
         <v>0</v>
       </c>
-      <c r="Q1140" t="inlineStr"/>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PGHH.NS.xlsx
+++ b/stock_historical_data/1wk/PGHH.NS.xlsx
@@ -64365,7 +64365,9 @@
       <c r="Q1141" t="n">
         <v>0</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PGHH.NS.xlsx
+++ b/stock_historical_data/1wk/PGHH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1141"/>
+  <dimension ref="A1:R1143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64133,7 +64133,7 @@
         <v>20</v>
       </c>
       <c r="O1137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1137" t="n">
         <v>0</v>
@@ -64368,6 +64368,114 @@
       <c r="R1141" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>16825.19921875</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>17000</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>16062.0498046875</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>16221.400390625</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>16221.400390625</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>22904</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>16464.69921875</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>16897.94921875</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>15961</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>16612.94921875</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>16612.94921875</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>42177</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PGHH.NS.xlsx
+++ b/stock_historical_data/1wk/PGHH.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1143"/>
+  <dimension ref="A1:R1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64357,7 +64357,7 @@
         <v>24</v>
       </c>
       <c r="O1141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1141" t="n">
         <v>0</v>
@@ -64421,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64475,7 +64477,1829 @@
       <c r="Q1143" t="n">
         <v>1</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>16427.8358794439</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>16645.57670955298</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>16192.49473349638</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>16384.052734375</v>
+      </c>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="n">
+        <v>15598</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>16384.0516981233</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>16798.72420404278</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>16271.33495284508</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>16730.0390625</v>
+      </c>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="n">
+        <v>34955</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>16744.68550464042</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>16798.72683841191</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>16476.55320018785</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>16562.19921875</v>
+      </c>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="n">
+        <v>36448</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>16596.26862544625</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>17499.08118236095</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>16217.83681909341</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>17144.759765625</v>
+      </c>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="n">
+        <v>43961</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>17159.89972718877</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>17280.80029979869</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>16476.45353410516</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>16921.5</v>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="n">
+        <v>31588</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>16665.79336103785</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>17255.50604919765</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>16177.751488585</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>16782.009765625</v>
+      </c>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="n">
+        <v>33304</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>16715.15030019497</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>17255.50582281159</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>16422.75931399862</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>16748.77734375</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>30693</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>16715.10008129508</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>17107.58443718625</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>16611.55521353484</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>16873.572265625</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>18821</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>16873.62150218712</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>17192.29352881893</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>16130.56384533994</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>16287.3603515625</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>45253</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>16322.27138706293</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>16369.95094934538</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>15882.79698735884</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>15936.5908203125</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>40200</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>15940.83124096234</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>16506.97476903091</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>15862.92605171111</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>16422.068359375</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>31554</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>16507.02390568452</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>16507.02390568452</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>16182.53324840046</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>16286.4248046875</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>44912</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>16448.84093868615</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>16468.56376954788</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>16085.94085083024</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>16185.689453125</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>42037</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>16221.97884799461</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>16591.83201650327</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>16177.6525545757</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>16522.0625</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>21864</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>16547.45594758009</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>16775.25465579767</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>16197.96698144944</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>16404.3671875</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>32395</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>16392.68123951972</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>16492.47799503035</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>15296.19005306601</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>15825.40234375</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>73150</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>15807.10988495649</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>16320.59303406155</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>15482.42277048626</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>15704.9951171875</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>26549</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>15704.99520155384</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>16342.33831406389</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>15234.70389539267</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>16032.7880859375</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>41944</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>16073.1705297737</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>16179.57462713344</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>15159.70778802808</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>15337.6572265625</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>60831</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>15383.80943449917</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>15620.43431132343</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>15133.32946037335</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>15486.3681640625</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>93139</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>15486.36743819017</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>16024.80074316035</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>15324.83763930489</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>15650.3134765625</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>15278</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>15747.33537582741</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>15874.33001595505</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>15514.72664003393</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>15766.384765625</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>22377</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>15775.11456683601</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>15873.3369782899</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>15627.23546336998</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>15750.1123046875</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>35744</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>15750.01343507122</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>16062.83673874342</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>15443.29124530419</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>15610.4677734375</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>27462</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>15669.99651724487</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>15685.67222344359</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>14883.17566818267</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>14996.0322265625</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>16371</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>14996.03234028219</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>15134.58585748529</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>14296.81774580898</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>14453.279296875</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>14958</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>14453.27967592365</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>15475.23905919469</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>14312.64303688014</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>14568.666015625</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>26516</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>14568.6664251016</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>14846.56602839673</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>14292.40328075999</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>14647.7900390625</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>19636</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>14595.70197601047</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>14760.59676871238</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>14379.66227134388</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>14637.8681640625</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>29174</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>14832.57673664075</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>14832.57673664075</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>14266.06159840518</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>14503.779296875</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>14855</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>14296.81805116626</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>14435.71843473068</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>13807.69027190013</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>14386.7060546875</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>17927</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>14683.75460279137</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>14683.75460279137</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>14239.37220938381</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>14362.74609375</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>62608</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>14362.74657573826</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>14403.47395943768</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>13552.65968144648</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>13749.6005859375</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>59291</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>13623.15119268336</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>14088.41806418438</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>13547.74812730983</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>13609.806640625</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>22409</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>13700</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>13885.650390625</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>13400</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>13541.900390625</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>23845</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PGHH.NS.xlsx
+++ b/stock_historical_data/1wk/PGHH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1178"/>
+  <dimension ref="A1:R1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64531,7 +64531,9 @@
       <c r="Q1144" t="n">
         <v>0</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
@@ -64583,7 +64585,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
@@ -64635,7 +64639,9 @@
       <c r="Q1146" t="n">
         <v>0</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64687,7 +64693,9 @@
       <c r="Q1147" t="n">
         <v>2</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
@@ -64739,7 +64747,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64791,7 +64801,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64843,7 +64855,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64895,7 +64909,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64947,7 +64963,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -64999,7 +65017,9 @@
       <c r="Q1153" t="n">
         <v>2</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65051,7 +65071,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65103,7 +65125,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65155,7 +65179,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65207,7 +65233,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65259,7 +65287,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65311,7 +65341,9 @@
       <c r="Q1159" t="n">
         <v>0</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65363,7 +65395,9 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
@@ -65415,7 +65449,9 @@
       <c r="Q1161" t="n">
         <v>0</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65467,7 +65503,9 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
@@ -65519,7 +65557,9 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
@@ -65571,7 +65611,9 @@
       <c r="Q1164" t="n">
         <v>2</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65623,7 +65665,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65675,7 +65719,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65727,7 +65773,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65779,7 +65827,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65831,7 +65881,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65883,7 +65935,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -65935,7 +65989,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -65987,7 +66043,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66039,7 +66097,9 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66091,7 +66151,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66143,7 +66205,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66195,7 +66259,9 @@
       <c r="Q1176" t="n">
         <v>0</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -66247,7 +66313,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66299,7 +66367,217 @@
       <c r="Q1178" t="n">
         <v>0</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>13431.0498046875</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>13697.7001953125</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>13289.5498046875</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>13502.2998046875</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>41109</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>13598.900390625</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>13639.900390625</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>13150</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>13394.25</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>22231</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>13480.349609375</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>13959.75</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>13366.2001953125</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>13859.7998046875</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>38244</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>13859.7998046875</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>14275</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>12105.599609375</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>13600.650390625</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>143194</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
